--- a/inst/application/data/MedTSO_map_template.xlsx
+++ b/inst/application/data/MedTSO_map_template.xlsx
@@ -3,25 +3,32 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D23DA7A-D57F-4735-9236-CA04ED52C0E1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F041684-6011-4226-9670-6FE9B6A153C1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-15" yWindow="2205" windowWidth="23520" windowHeight="9360" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Areas" sheetId="1" r:id="rId1"/>
     <sheet name="Links" sheetId="2" r:id="rId2"/>
+    <sheet name="Graphical Parameters" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="306">
   <si>
     <t>OBJECTID</t>
   </si>
@@ -702,6 +709,243 @@
   </si>
   <si>
     <t>draw_cty</t>
+  </si>
+  <si>
+    <t>map</t>
+  </si>
+  <si>
+    <t>Countries</t>
+  </si>
+  <si>
+    <t>title_countries</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>textInput</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>selectInput</t>
+  </si>
+  <si>
+    <t>column_selection</t>
+  </si>
+  <si>
+    <t>MRG. PRICE</t>
+  </si>
+  <si>
+    <t>Day ahead marginal price</t>
+  </si>
+  <si>
+    <t>colourInput</t>
+  </si>
+  <si>
+    <t>col_min</t>
+  </si>
+  <si>
+    <t>col_med</t>
+  </si>
+  <si>
+    <t>col_max</t>
+  </si>
+  <si>
+    <t>#F5ED08</t>
+  </si>
+  <si>
+    <t>#FF4924</t>
+  </si>
+  <si>
+    <t>#5E0202</t>
+  </si>
+  <si>
+    <t>sliderInput</t>
+  </si>
+  <si>
+    <t>arrow_width_countries</t>
+  </si>
+  <si>
+    <t>arrow_size_countries</t>
+  </si>
+  <si>
+    <t>arrow_textsize_countries</t>
+  </si>
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>Title :</t>
+  </si>
+  <si>
+    <t>Variable :</t>
+  </si>
+  <si>
+    <t>Min. col</t>
+  </si>
+  <si>
+    <t>Middle. col</t>
+  </si>
+  <si>
+    <t>Max. col</t>
+  </si>
+  <si>
+    <t>Arrow width :</t>
+  </si>
+  <si>
+    <t>Arrow size :</t>
+  </si>
+  <si>
+    <t>Arrow label :</t>
+  </si>
+  <si>
+    <t>Arrow : color 1</t>
+  </si>
+  <si>
+    <t>Arrow : color 2</t>
+  </si>
+  <si>
+    <t>col_arrow_1_countries</t>
+  </si>
+  <si>
+    <t>col_arrow_2_countries</t>
+  </si>
+  <si>
+    <t>#217314</t>
+  </si>
+  <si>
+    <t>#9c0636</t>
+  </si>
+  <si>
+    <t>comment</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>antares column</t>
+  </si>
+  <si>
+    <t>HEX color</t>
+  </si>
+  <si>
+    <t>min = 0.1, max = 1,  step = 0.1</t>
+  </si>
+  <si>
+    <t>min = 0.01, max = 0.2, step = 0.01</t>
+  </si>
+  <si>
+    <t>min = 1, max = 10, step = 1</t>
+  </si>
+  <si>
+    <t>Exchanges and productions</t>
+  </si>
+  <si>
+    <t>title_centers</t>
+  </si>
+  <si>
+    <t>centers_columns</t>
+  </si>
+  <si>
+    <t>Variables :</t>
+  </si>
+  <si>
+    <t>MISC. NDG,H. ROR ,WIND, SOLAR,NUCLEAR, LIGNITE , COAL,GAS,OIL, MIX. FUEL,MISC. DTG,H. STOR</t>
+  </si>
+  <si>
+    <t>col_sp</t>
+  </si>
+  <si>
+    <t>#f3f1f2</t>
+  </si>
+  <si>
+    <t>Cty : color</t>
+  </si>
+  <si>
+    <t>pie_size_centers</t>
+  </si>
+  <si>
+    <t>pie_textsize_centers</t>
+  </si>
+  <si>
+    <t>pie_alpha_centers</t>
+  </si>
+  <si>
+    <t>arrow_width_centers</t>
+  </si>
+  <si>
+    <t>Pie alpha :</t>
+  </si>
+  <si>
+    <t>Pie label :</t>
+  </si>
+  <si>
+    <t>Pie size :</t>
+  </si>
+  <si>
+    <t>min = 1, max = 6, step = 0.5</t>
+  </si>
+  <si>
+    <t>min = 1, max = 10, step = 0.5</t>
+  </si>
+  <si>
+    <t>min = 0, max = 1, step = 0.1</t>
+  </si>
+  <si>
+    <t>min = 0.1, max = 1, step = 0.1</t>
+  </si>
+  <si>
+    <t>antares columns, separated by comma</t>
+  </si>
+  <si>
+    <t>arrow_size_centers</t>
+  </si>
+  <si>
+    <t>arrow_textsize_centers</t>
+  </si>
+  <si>
+    <t>col_arrow_1</t>
+  </si>
+  <si>
+    <t>col_arrow_2</t>
+  </si>
+  <si>
+    <t>Interconnection usage</t>
+  </si>
+  <si>
+    <t>title_interco</t>
+  </si>
+  <si>
+    <t>col_sp_interco</t>
+  </si>
+  <si>
+    <t>pie_size_interco</t>
+  </si>
+  <si>
+    <t>pie_textsize_interco</t>
+  </si>
+  <si>
+    <t>pie_alpha_interco</t>
+  </si>
+  <si>
+    <t>arrow_width_interco</t>
+  </si>
+  <si>
+    <t>arrow_size_interco</t>
+  </si>
+  <si>
+    <t>arrow_textsize_interco</t>
+  </si>
+  <si>
+    <t>col_arrow_1_interco</t>
+  </si>
+  <si>
+    <t>col_arrow_2_interco</t>
   </si>
 </sst>
 </file>
@@ -737,8 +981,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1021,8 +1268,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J78"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3454,8 +3701,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEA1C867-1131-48E1-A4F1-911C41019212}">
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3671,4 +3918,666 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3D8FA10-BFB4-4286-810A-BC8856540D4D}">
+  <dimension ref="A1:F32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.7109375" customWidth="1"/>
+    <col min="5" max="5" width="93.28515625" customWidth="1"/>
+    <col min="6" max="6" width="29.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C1" t="s">
+        <v>232</v>
+      </c>
+      <c r="D1" t="s">
+        <v>249</v>
+      </c>
+      <c r="E1" t="s">
+        <v>233</v>
+      </c>
+      <c r="F1" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>228</v>
+      </c>
+      <c r="B2" t="s">
+        <v>231</v>
+      </c>
+      <c r="C2" t="s">
+        <v>229</v>
+      </c>
+      <c r="D2" t="s">
+        <v>250</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="F2" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>228</v>
+      </c>
+      <c r="B3" t="s">
+        <v>234</v>
+      </c>
+      <c r="C3" t="s">
+        <v>235</v>
+      </c>
+      <c r="D3" t="s">
+        <v>251</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="F3" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>228</v>
+      </c>
+      <c r="B4" t="s">
+        <v>238</v>
+      </c>
+      <c r="C4" t="s">
+        <v>239</v>
+      </c>
+      <c r="D4" t="s">
+        <v>252</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="F4" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>228</v>
+      </c>
+      <c r="B5" t="s">
+        <v>238</v>
+      </c>
+      <c r="C5" t="s">
+        <v>240</v>
+      </c>
+      <c r="D5" t="s">
+        <v>253</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="F5" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>228</v>
+      </c>
+      <c r="B6" t="s">
+        <v>238</v>
+      </c>
+      <c r="C6" t="s">
+        <v>241</v>
+      </c>
+      <c r="D6" t="s">
+        <v>254</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="F6" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>228</v>
+      </c>
+      <c r="B7" t="s">
+        <v>245</v>
+      </c>
+      <c r="C7" t="s">
+        <v>246</v>
+      </c>
+      <c r="D7" t="s">
+        <v>255</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="F7" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>228</v>
+      </c>
+      <c r="B8" t="s">
+        <v>245</v>
+      </c>
+      <c r="C8" t="s">
+        <v>247</v>
+      </c>
+      <c r="D8" t="s">
+        <v>256</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0.08</v>
+      </c>
+      <c r="F8" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>228</v>
+      </c>
+      <c r="B9" t="s">
+        <v>245</v>
+      </c>
+      <c r="C9" t="s">
+        <v>248</v>
+      </c>
+      <c r="D9" t="s">
+        <v>257</v>
+      </c>
+      <c r="E9" s="1">
+        <v>4</v>
+      </c>
+      <c r="F9" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>228</v>
+      </c>
+      <c r="B10" t="s">
+        <v>238</v>
+      </c>
+      <c r="C10" t="s">
+        <v>260</v>
+      </c>
+      <c r="D10" t="s">
+        <v>258</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="F10" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>228</v>
+      </c>
+      <c r="B11" t="s">
+        <v>238</v>
+      </c>
+      <c r="C11" t="s">
+        <v>261</v>
+      </c>
+      <c r="D11" t="s">
+        <v>259</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="F11" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>271</v>
+      </c>
+      <c r="B12" t="s">
+        <v>231</v>
+      </c>
+      <c r="C12" t="s">
+        <v>272</v>
+      </c>
+      <c r="D12" t="s">
+        <v>250</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="F12" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>271</v>
+      </c>
+      <c r="B13" t="s">
+        <v>234</v>
+      </c>
+      <c r="C13" t="s">
+        <v>273</v>
+      </c>
+      <c r="D13" t="s">
+        <v>274</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="F13" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>271</v>
+      </c>
+      <c r="B14" t="s">
+        <v>238</v>
+      </c>
+      <c r="C14" t="s">
+        <v>276</v>
+      </c>
+      <c r="D14" t="s">
+        <v>278</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="F14" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>271</v>
+      </c>
+      <c r="B15" t="s">
+        <v>245</v>
+      </c>
+      <c r="C15" t="s">
+        <v>279</v>
+      </c>
+      <c r="D15" t="s">
+        <v>285</v>
+      </c>
+      <c r="E15" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="F15" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>271</v>
+      </c>
+      <c r="B16" t="s">
+        <v>245</v>
+      </c>
+      <c r="C16" t="s">
+        <v>280</v>
+      </c>
+      <c r="D16" t="s">
+        <v>284</v>
+      </c>
+      <c r="E16" s="1">
+        <v>3</v>
+      </c>
+      <c r="F16" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>271</v>
+      </c>
+      <c r="B17" t="s">
+        <v>245</v>
+      </c>
+      <c r="C17" t="s">
+        <v>281</v>
+      </c>
+      <c r="D17" t="s">
+        <v>283</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="F17" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>271</v>
+      </c>
+      <c r="B18" t="s">
+        <v>245</v>
+      </c>
+      <c r="C18" t="s">
+        <v>282</v>
+      </c>
+      <c r="D18" t="s">
+        <v>255</v>
+      </c>
+      <c r="E18" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="F18" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>271</v>
+      </c>
+      <c r="B19" t="s">
+        <v>245</v>
+      </c>
+      <c r="C19" t="s">
+        <v>291</v>
+      </c>
+      <c r="D19" t="s">
+        <v>256</v>
+      </c>
+      <c r="E19" s="1">
+        <v>0.08</v>
+      </c>
+      <c r="F19" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>271</v>
+      </c>
+      <c r="B20" t="s">
+        <v>245</v>
+      </c>
+      <c r="C20" t="s">
+        <v>292</v>
+      </c>
+      <c r="D20" t="s">
+        <v>257</v>
+      </c>
+      <c r="E20" s="1">
+        <v>4</v>
+      </c>
+      <c r="F20" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>271</v>
+      </c>
+      <c r="B21" t="s">
+        <v>238</v>
+      </c>
+      <c r="C21" t="s">
+        <v>293</v>
+      </c>
+      <c r="D21" t="s">
+        <v>258</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="F21" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>271</v>
+      </c>
+      <c r="B22" t="s">
+        <v>238</v>
+      </c>
+      <c r="C22" t="s">
+        <v>294</v>
+      </c>
+      <c r="D22" t="s">
+        <v>259</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="F22" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>295</v>
+      </c>
+      <c r="B23" t="s">
+        <v>231</v>
+      </c>
+      <c r="C23" t="s">
+        <v>296</v>
+      </c>
+      <c r="D23" t="s">
+        <v>250</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="F23" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>295</v>
+      </c>
+      <c r="B24" t="s">
+        <v>238</v>
+      </c>
+      <c r="C24" t="s">
+        <v>297</v>
+      </c>
+      <c r="D24" t="s">
+        <v>278</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="F24" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>295</v>
+      </c>
+      <c r="B25" t="s">
+        <v>245</v>
+      </c>
+      <c r="C25" t="s">
+        <v>298</v>
+      </c>
+      <c r="D25" t="s">
+        <v>285</v>
+      </c>
+      <c r="E25" s="1">
+        <v>2</v>
+      </c>
+      <c r="F25" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>295</v>
+      </c>
+      <c r="B26" t="s">
+        <v>245</v>
+      </c>
+      <c r="C26" t="s">
+        <v>299</v>
+      </c>
+      <c r="D26" t="s">
+        <v>284</v>
+      </c>
+      <c r="E26" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="F26" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>295</v>
+      </c>
+      <c r="B27" t="s">
+        <v>245</v>
+      </c>
+      <c r="C27" t="s">
+        <v>300</v>
+      </c>
+      <c r="D27" t="s">
+        <v>283</v>
+      </c>
+      <c r="E27" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="F27" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>295</v>
+      </c>
+      <c r="B28" t="s">
+        <v>245</v>
+      </c>
+      <c r="C28" t="s">
+        <v>301</v>
+      </c>
+      <c r="D28" t="s">
+        <v>255</v>
+      </c>
+      <c r="E28" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="F28" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>295</v>
+      </c>
+      <c r="B29" t="s">
+        <v>245</v>
+      </c>
+      <c r="C29" t="s">
+        <v>302</v>
+      </c>
+      <c r="D29" t="s">
+        <v>256</v>
+      </c>
+      <c r="E29" s="1">
+        <v>0.08</v>
+      </c>
+      <c r="F29" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>295</v>
+      </c>
+      <c r="B30" t="s">
+        <v>245</v>
+      </c>
+      <c r="C30" t="s">
+        <v>303</v>
+      </c>
+      <c r="D30" t="s">
+        <v>257</v>
+      </c>
+      <c r="E30" s="1">
+        <v>4</v>
+      </c>
+      <c r="F30" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>295</v>
+      </c>
+      <c r="B31" t="s">
+        <v>238</v>
+      </c>
+      <c r="C31" t="s">
+        <v>304</v>
+      </c>
+      <c r="D31" t="s">
+        <v>258</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="F31" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>295</v>
+      </c>
+      <c r="B32" t="s">
+        <v>238</v>
+      </c>
+      <c r="C32" t="s">
+        <v>305</v>
+      </c>
+      <c r="D32" t="s">
+        <v>259</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="F32" t="s">
+        <v>267</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>